--- a/output.xlsx
+++ b/output.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="16095" windowHeight="9630" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="matCount" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,15 @@
     <sheet name="matRiskRet" sheetId="4" r:id="rId4"/>
     <sheet name="histRef" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="141">
+  <si>
+    <t>-4.0 ~ -3.5</t>
+  </si>
   <si>
     <t>-3.5 ~ -3.0</t>
   </si>
@@ -59,361 +62,367 @@
     <t>2.5 ~ 3.0</t>
   </si>
   <si>
+    <t>NPOI CHG ZS KEY</t>
+  </si>
+  <si>
     <t>3.0 ~ 3.5</t>
   </si>
   <si>
-    <t>NPOI CHG ZS KEY</t>
-  </si>
-  <si>
-    <t>4.0 ~ 4.5</t>
-  </si>
-  <si>
-    <t>-0.9% / 11.%</t>
-  </si>
-  <si>
-    <t>-13.% / 2.5%</t>
-  </si>
-  <si>
-    <t>-6.9% / 9.4%</t>
-  </si>
-  <si>
-    <t>-6.7% / 8.0%</t>
-  </si>
-  <si>
-    <t>-16.% / 1.6%</t>
-  </si>
-  <si>
-    <t>-11.% / 6.9%</t>
-  </si>
-  <si>
-    <t>-14.% / 6.4%</t>
-  </si>
-  <si>
-    <t>-10.% / 8.5%</t>
-  </si>
-  <si>
-    <t>0.0% / 18.%</t>
-  </si>
-  <si>
-    <t>-13.% / 2.9%</t>
-  </si>
-  <si>
-    <t>-2.6% / 7.9%</t>
-  </si>
-  <si>
-    <t>-14.% / 10.%</t>
-  </si>
-  <si>
-    <t>-3.2% / 14.%</t>
-  </si>
-  <si>
-    <t>-49.% / 5.8%</t>
-  </si>
-  <si>
-    <t>-10.% / 18.%</t>
-  </si>
-  <si>
-    <t>-10.% / 15.%</t>
-  </si>
-  <si>
-    <t>-13.% / 11.%</t>
-  </si>
-  <si>
-    <t>-9.3% / 8.8%</t>
-  </si>
-  <si>
-    <t>-15.% / 10.%</t>
-  </si>
-  <si>
-    <t>-7.3% / 15.%</t>
-  </si>
-  <si>
-    <t>-25.% / 0.2%</t>
-  </si>
-  <si>
-    <t>-4.8% / 7.4%</t>
-  </si>
-  <si>
-    <t>-0.9% / 20.%</t>
-  </si>
-  <si>
-    <t>-13.% / 14.%</t>
-  </si>
-  <si>
-    <t>-14.% / 14.%</t>
+    <t>3.5 ~ 4.0</t>
+  </si>
+  <si>
+    <t>4.5 ~ 5.0</t>
+  </si>
+  <si>
+    <t>-9.0% / 3.2%</t>
+  </si>
+  <si>
+    <t>-6.5% / 7.8%</t>
+  </si>
+  <si>
+    <t>-6.0% / 11.%</t>
+  </si>
+  <si>
+    <t>-3.9% / 8.8%</t>
+  </si>
+  <si>
+    <t>-13.% / 0.9%</t>
+  </si>
+  <si>
+    <t>-9.0% / 4.0%</t>
+  </si>
+  <si>
+    <t>-7.0% / 12.%</t>
+  </si>
+  <si>
+    <t>-3.2% / 4.7%</t>
+  </si>
+  <si>
+    <t>-10.% / 0.8%</t>
+  </si>
+  <si>
+    <t>-6.9% / 0.7%</t>
+  </si>
+  <si>
+    <t>-12.% / 1.1%</t>
+  </si>
+  <si>
+    <t>-19.% / 0.9%</t>
+  </si>
+  <si>
+    <t>-7.2% / 8.0%</t>
+  </si>
+  <si>
+    <t>-4.3% / 2.1%</t>
+  </si>
+  <si>
+    <t>-7.0% / 9.3%</t>
+  </si>
+  <si>
+    <t>-4.9% / 4.6%</t>
+  </si>
+  <si>
+    <t>-8.6% / 7.4%</t>
+  </si>
+  <si>
+    <t>-6.8% / 7.7%</t>
+  </si>
+  <si>
+    <t>-5.1% / 9.9%</t>
+  </si>
+  <si>
+    <t>-7.7% / 3.6%</t>
+  </si>
+  <si>
+    <t>-4.6% / 7.4%</t>
+  </si>
+  <si>
+    <t>-4.4% / 19.%</t>
+  </si>
+  <si>
+    <t>-0.0% / 11.%</t>
+  </si>
+  <si>
+    <t>-5.9% / 5.9%</t>
+  </si>
+  <si>
+    <t>-7.3% / 6.8%</t>
+  </si>
+  <si>
+    <t>-8.0% / 7.0%</t>
+  </si>
+  <si>
+    <t>-6.4% / 6.9%</t>
+  </si>
+  <si>
+    <t>-10.% / 5.6%</t>
+  </si>
+  <si>
+    <t>-9.1% / 4.0%</t>
+  </si>
+  <si>
+    <t>-5.4% / 8.9%</t>
+  </si>
+  <si>
+    <t>-4.9% / 8.6%</t>
+  </si>
+  <si>
+    <t>-7.1% / 4.5%</t>
+  </si>
+  <si>
+    <t>-12.% / 13.%</t>
+  </si>
+  <si>
+    <t>-8.5% / 2.3%</t>
+  </si>
+  <si>
+    <t>-7.6% / 5.5%</t>
+  </si>
+  <si>
+    <t>-6.0% / 6.7%</t>
+  </si>
+  <si>
+    <t>-5.6% / 6.1%</t>
+  </si>
+  <si>
+    <t>-8.7% / 3.3%</t>
+  </si>
+  <si>
+    <t>-9.9% / 11.%</t>
+  </si>
+  <si>
+    <t>-4.4% / 8.1%</t>
+  </si>
+  <si>
+    <t>0.0% / 6.5%</t>
+  </si>
+  <si>
+    <t>-19.% / 4.6%</t>
+  </si>
+  <si>
+    <t>-11.% / 4.5%</t>
+  </si>
+  <si>
+    <t>-10.% / 4.7%</t>
+  </si>
+  <si>
+    <t>-12.% / 10.%</t>
+  </si>
+  <si>
+    <t>-5.8% / 12.%</t>
+  </si>
+  <si>
+    <t>-6.8% / 9.2%</t>
+  </si>
+  <si>
+    <t>-8.6% / 5.3%</t>
+  </si>
+  <si>
+    <t>-6.8% / 4.2%</t>
+  </si>
+  <si>
+    <t>-19.% / 1.5%</t>
+  </si>
+  <si>
+    <t>-2.0% / 24.%</t>
+  </si>
+  <si>
+    <t>-5.9% / 9.7%</t>
+  </si>
+  <si>
+    <t>-9.9% / 7.2%</t>
+  </si>
+  <si>
+    <t>-9.3% / 7.2%</t>
+  </si>
+  <si>
+    <t>-10.% / 5.9%</t>
+  </si>
+  <si>
+    <t>-6.5% / 8.8%</t>
+  </si>
+  <si>
+    <t>-7.1% / 10.%</t>
+  </si>
+  <si>
+    <t>-7.4% / 8.4%</t>
+  </si>
+  <si>
+    <t>-7.5% / 7.5%</t>
+  </si>
+  <si>
+    <t>-9.1% / 8.6%</t>
+  </si>
+  <si>
+    <t>-8.7% / 8.1%</t>
+  </si>
+  <si>
+    <t>-7.3% / 4.3%</t>
+  </si>
+  <si>
+    <t>-10.% / 13.%</t>
+  </si>
+  <si>
+    <t>-5.1% / 0.0%</t>
+  </si>
+  <si>
+    <t>-3.5% / 4.0%</t>
+  </si>
+  <si>
+    <t>-9.1% / 11.%</t>
+  </si>
+  <si>
+    <t>-6.8% / 5.9%</t>
+  </si>
+  <si>
+    <t>-11.% / 9.2%</t>
+  </si>
+  <si>
+    <t>-9.0% / 8.4%</t>
+  </si>
+  <si>
+    <t>-9.0% / 7.7%</t>
+  </si>
+  <si>
+    <t>-11.% / 7.4%</t>
+  </si>
+  <si>
+    <t>-8.5% / 6.6%</t>
+  </si>
+  <si>
+    <t>-6.7% / 10.%</t>
+  </si>
+  <si>
+    <t>-8.9% / 6.8%</t>
+  </si>
+  <si>
+    <t>-13.% / 7.8%</t>
+  </si>
+  <si>
+    <t>-12.% / 3.5%</t>
+  </si>
+  <si>
+    <t>-9.2% / 7.9%</t>
+  </si>
+  <si>
+    <t>-9.6% / 6.5%</t>
+  </si>
+  <si>
+    <t>-10.% / 8.7%</t>
+  </si>
+  <si>
+    <t>-12.% / 6.3%</t>
+  </si>
+  <si>
+    <t>-12.% / 6.1%</t>
+  </si>
+  <si>
+    <t>-6.6% / 6.8%</t>
+  </si>
+  <si>
+    <t>-0.1% / 14.%</t>
+  </si>
+  <si>
+    <t>-14.% / 5.4%</t>
+  </si>
+  <si>
+    <t>-3.0% / 16.%</t>
+  </si>
+  <si>
+    <t>-3.6% / 14.%</t>
+  </si>
+  <si>
+    <t>-5.1% / 5.0%</t>
+  </si>
+  <si>
+    <t>-10.% / 4.4%</t>
+  </si>
+  <si>
+    <t>-7.2% / 10.%</t>
+  </si>
+  <si>
+    <t>-11.% / 5.0%</t>
+  </si>
+  <si>
+    <t>-5.1% / 4.5%</t>
+  </si>
+  <si>
+    <t>-8.0% / 6.9%</t>
+  </si>
+  <si>
+    <t>-8.7% / 6.2%</t>
+  </si>
+  <si>
+    <t>-8.4% / 13.%</t>
+  </si>
+  <si>
+    <t>-25.% / 0.3%</t>
+  </si>
+  <si>
+    <t>-9.6% / 3.9%</t>
+  </si>
+  <si>
+    <t>-5.0% / 1.5%</t>
+  </si>
+  <si>
+    <t>-10.% / 3.4%</t>
+  </si>
+  <si>
+    <t>-7.2% / 7.6%</t>
+  </si>
+  <si>
+    <t>-6.0% / 8.8%</t>
+  </si>
+  <si>
+    <t>-6.4% / 7.7%</t>
+  </si>
+  <si>
+    <t>-7.9% / 13.%</t>
+  </si>
+  <si>
+    <t>-2.2% / 13.%</t>
+  </si>
+  <si>
+    <t>-3.7% / 1.9%</t>
+  </si>
+  <si>
+    <t>-6.3% / 16.%</t>
+  </si>
+  <si>
+    <t>-6.9% / 3.2%</t>
+  </si>
+  <si>
+    <t>-3.1% / 17.%</t>
+  </si>
+  <si>
+    <t>-6.7% / 8.6%</t>
+  </si>
+  <si>
+    <t>-8.6% / 4.3%</t>
   </si>
   <si>
     <t>-14.% / 11.%</t>
   </si>
   <si>
-    <t>-16.% / 10.%</t>
-  </si>
-  <si>
-    <t>-4.0% / 15.%</t>
-  </si>
-  <si>
-    <t>-15.% / 23.%</t>
-  </si>
-  <si>
-    <t>-20.% / 7.2%</t>
-  </si>
-  <si>
-    <t>-2.7% / 10.%</t>
-  </si>
-  <si>
-    <t>-10.% / 10.%</t>
-  </si>
-  <si>
-    <t>-12.% / 8.5%</t>
-  </si>
-  <si>
-    <t>-15.% / 12.%</t>
-  </si>
-  <si>
-    <t>-12.% / 13.%</t>
-  </si>
-  <si>
-    <t>-12.% / 12.%</t>
-  </si>
-  <si>
-    <t>-13.% / 13.%</t>
-  </si>
-  <si>
-    <t>-11.% / 2.6%</t>
-  </si>
-  <si>
-    <t>-5.2% / 11.%</t>
-  </si>
-  <si>
-    <t>-7.7% / 8.8%</t>
-  </si>
-  <si>
-    <t>-7.4% / 15.%</t>
-  </si>
-  <si>
-    <t>-9.1% / 12.%</t>
-  </si>
-  <si>
-    <t>-9.2% / 15.%</t>
-  </si>
-  <si>
-    <t>-9.4% / 14.%</t>
-  </si>
-  <si>
-    <t>-13.% / 8.2%</t>
-  </si>
-  <si>
-    <t>-8.9% / 13.%</t>
-  </si>
-  <si>
-    <t>-16.% / 9.1%</t>
-  </si>
-  <si>
-    <t>-11.% / 4.9%</t>
-  </si>
-  <si>
-    <t>-2.1% / 9.2%</t>
-  </si>
-  <si>
-    <t>-7.1% / 16.%</t>
-  </si>
-  <si>
-    <t>-10.% / 5.8%</t>
-  </si>
-  <si>
-    <t>-7.8% / 14.%</t>
-  </si>
-  <si>
-    <t>-10.% / 14.%</t>
-  </si>
-  <si>
-    <t>-13.% / 10.%</t>
-  </si>
-  <si>
-    <t>-8.7% / 15.%</t>
-  </si>
-  <si>
-    <t>-12.% / 10.%</t>
-  </si>
-  <si>
-    <t>-5.4% / 16.%</t>
-  </si>
-  <si>
-    <t>-7.1% / 12.%</t>
-  </si>
-  <si>
-    <t>-9.9% / 9.4%</t>
-  </si>
-  <si>
-    <t>-0.9% / 21.%</t>
-  </si>
-  <si>
-    <t>-33.% / 0.0%</t>
-  </si>
-  <si>
-    <t>-13.% / 6.3%</t>
-  </si>
-  <si>
-    <t>-6.0% / 11.%</t>
-  </si>
-  <si>
-    <t>-7.0% / 10.%</t>
-  </si>
-  <si>
-    <t>-9.4% / 12.%</t>
-  </si>
-  <si>
-    <t>-9.5% / 10.%</t>
-  </si>
-  <si>
-    <t>-6.7% / 12.%</t>
-  </si>
-  <si>
-    <t>-8.7% / 9.8%</t>
-  </si>
-  <si>
-    <t>-6.8% / 11.%</t>
-  </si>
-  <si>
-    <t>-4.8% / 12.%</t>
-  </si>
-  <si>
-    <t>-6.2% / 11.%</t>
-  </si>
-  <si>
-    <t>-6.0% / 24.%</t>
-  </si>
-  <si>
-    <t>-7.8% / 9.3%</t>
-  </si>
-  <si>
-    <t>-13.% / 3.0%</t>
-  </si>
-  <si>
-    <t>-8.2% / 10.%</t>
-  </si>
-  <si>
-    <t>-12.% / 8.7%</t>
-  </si>
-  <si>
-    <t>-7.2% / 12.%</t>
-  </si>
-  <si>
-    <t>-11.% / 9.2%</t>
-  </si>
-  <si>
-    <t>-8.2% / 9.6%</t>
-  </si>
-  <si>
-    <t>-7.1% / 9.3%</t>
-  </si>
-  <si>
-    <t>-6.8% / 13.%</t>
-  </si>
-  <si>
-    <t>-13.% / 7.1%</t>
-  </si>
-  <si>
-    <t>-15.% / 0.7%</t>
-  </si>
-  <si>
-    <t>-2.8% / 18.%</t>
-  </si>
-  <si>
-    <t>-4.4% / 14.%</t>
-  </si>
-  <si>
-    <t>-5.7% / 5.7%</t>
-  </si>
-  <si>
-    <t>-9.4% / 5.0%</t>
-  </si>
-  <si>
-    <t>-8.0% / 6.8%</t>
-  </si>
-  <si>
-    <t>-7.5% / 9.6%</t>
-  </si>
-  <si>
-    <t>-7.9% / 9.0%</t>
-  </si>
-  <si>
-    <t>-8.6% / 9.7%</t>
-  </si>
-  <si>
-    <t>-7.3% / 9.9%</t>
-  </si>
-  <si>
-    <t>-6.2% / 7.8%</t>
-  </si>
-  <si>
-    <t>-4.0% / 14.%</t>
-  </si>
-  <si>
-    <t>-8.3% / 6.6%</t>
-  </si>
-  <si>
-    <t>-17.% / 0.7%</t>
-  </si>
-  <si>
-    <t>-1.5% / 13.%</t>
-  </si>
-  <si>
-    <t>-4.6% / 9.0%</t>
-  </si>
-  <si>
-    <t>-9.4% / 6.4%</t>
-  </si>
-  <si>
-    <t>-10.% / 5.4%</t>
-  </si>
-  <si>
-    <t>-8.1% / 5.6%</t>
-  </si>
-  <si>
-    <t>-9.1% / 5.1%</t>
-  </si>
-  <si>
-    <t>-10.% / 6.8%</t>
-  </si>
-  <si>
-    <t>-7.1% / 6.1%</t>
-  </si>
-  <si>
-    <t>-4.6% / 13.%</t>
-  </si>
-  <si>
-    <t>-4.5% / 3.8%</t>
-  </si>
-  <si>
-    <t>-4.7% / 8.9%</t>
-  </si>
-  <si>
-    <t>-7.4% / 4.1%</t>
-  </si>
-  <si>
-    <t>-7.8% / 4.4%</t>
-  </si>
-  <si>
-    <t>-16.% / 1.2%</t>
-  </si>
-  <si>
-    <t>-6.5% / 6.1%</t>
-  </si>
-  <si>
-    <t>-3.0% / 7.0%</t>
-  </si>
-  <si>
-    <t>-6.3% / 12.%</t>
-  </si>
-  <si>
-    <t>-12.% / 4.9%</t>
-  </si>
-  <si>
-    <t>NYMOCNCN Index</t>
-  </si>
-  <si>
-    <t>NYMOCOIN Index</t>
+    <t>-4.0% / 2.5%</t>
+  </si>
+  <si>
+    <t>-8.1% / 1.8%</t>
+  </si>
+  <si>
+    <t>-5.4% / 8.8%</t>
+  </si>
+  <si>
+    <t>-10.% / 1.3%</t>
+  </si>
+  <si>
+    <t>-5.2% / 0.1%</t>
+  </si>
+  <si>
+    <t>CBTPTNRN Index</t>
+  </si>
+  <si>
+    <t>CBTPTOIN Index</t>
   </si>
   <si>
     <t>NPOI Z-SCORE</t>
@@ -437,15 +446,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -453,15 +462,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -505,25 +507,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -597,7 +594,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -632,7 +628,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -808,16 +803,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -864,64 +857,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+      <c r="F4">
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -929,363 +901,360 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>2</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
       <c r="F8">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <v>22</v>
       </c>
       <c r="J8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I9">
         <v>33</v>
       </c>
       <c r="J9">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L9">
         <v>23</v>
       </c>
       <c r="M9">
-        <v>10</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I10">
         <v>24</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
       <c r="F11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K11">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M11">
+        <v>18</v>
+      </c>
+      <c r="N11">
         <v>6</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
       <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="G14">
+        <v>3</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
+      <c r="L15">
+        <v>3</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1294,31 +1263,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1365,461 +1353,456 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0.20022246941045599</v>
-      </c>
-      <c r="L2">
-        <v>9.96563573883162E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>-0.0923026908072422</v>
+      </c>
+      <c r="J2">
+        <v>-0.0230619123647332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>0.0281486975288293</v>
+      </c>
       <c r="D3">
-        <v>0.119334277620397</v>
-      </c>
-      <c r="G3">
-        <v>-0.11740036325712599</v>
-      </c>
-      <c r="H3">
-        <v>8.1986754966887301E-2</v>
-      </c>
-      <c r="J3">
-        <v>-5.6081024978053798E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.121167452830189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>3.3678756476683801E-2</v>
-      </c>
-      <c r="C4">
-        <v>9.1605839416058404E-2</v>
-      </c>
-      <c r="E4">
-        <v>-0.49063904143784298</v>
-      </c>
-      <c r="G4">
-        <v>3.5506094329623698E-2</v>
+      <c r="F4">
+        <v>0.136806659105397</v>
       </c>
       <c r="H4">
-        <v>5.7140148117314299E-2</v>
-      </c>
-      <c r="I4">
-        <v>0.148419127253723</v>
+        <v>0.0152811735941321</v>
       </c>
       <c r="J4">
-        <v>3.7742452553648199E-2</v>
-      </c>
-      <c r="K4">
-        <v>-3.5626254742940899E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>-0.00735493191906963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.24249334853668E-2</v>
+        <v>-0.0463271640418439</v>
       </c>
       <c r="D5">
-        <v>-8.98572663513931E-2</v>
+        <v>0.0172324659658798</v>
       </c>
       <c r="E5">
-        <v>0.13609202923252001</v>
+        <v>-0.0258841800597688</v>
       </c>
       <c r="F5">
-        <v>1.7251782048458501E-2</v>
+        <v>0.0834707734487115</v>
       </c>
       <c r="G5">
-        <v>-1.5651200339646201E-3</v>
+        <v>-0.03279006596818</v>
       </c>
       <c r="H5">
-        <v>8.2979421499657993E-2</v>
+        <v>-0.114527119126939</v>
       </c>
       <c r="I5">
-        <v>-5.3195023620190698E-2</v>
-      </c>
-      <c r="J5">
-        <v>3.9667875359460397E-2</v>
-      </c>
-      <c r="K5">
-        <v>2.5664692004689401E-2</v>
-      </c>
-      <c r="L5">
-        <v>-7.8709862307823602E-3</v>
-      </c>
-      <c r="M5">
-        <v>0.105030701281913</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.0621346529733646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>-0.0626981331454737</v>
+      </c>
       <c r="C6">
-        <v>-8.2622601279317795E-2</v>
+        <v>-0.0255362614913177</v>
       </c>
       <c r="E6">
-        <v>8.5281979897210702E-2</v>
+        <v>0.0133335833083785</v>
       </c>
       <c r="F6">
-        <v>1.75139638958943E-2</v>
+        <v>-0.0196706329790801</v>
       </c>
       <c r="G6">
-        <v>3.1065011900704999E-3</v>
+        <v>0.089366408792458</v>
       </c>
       <c r="H6">
-        <v>4.5829608722550902E-2</v>
+        <v>-0.0488918427573473</v>
       </c>
       <c r="I6">
-        <v>5.5491285484651598E-2</v>
+        <v>-0.0262185148345581</v>
       </c>
       <c r="J6">
-        <v>4.0032846374650398E-2</v>
+        <v>0.0359894204771819</v>
       </c>
       <c r="K6">
-        <v>-4.5757052801402402E-2</v>
+        <v>0.00171984040269837</v>
       </c>
       <c r="L6">
-        <v>-4.3197640706085401E-2</v>
-      </c>
-      <c r="M6">
-        <v>-9.0752030393626594E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.106502554575012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>-0.122070254692733</v>
+      <c r="D7">
+        <v>-0.0932319495821347</v>
       </c>
       <c r="E7">
-        <v>9.1833716518091805E-3</v>
+        <v>-0.0233106451520042</v>
       </c>
       <c r="F7">
-        <v>-2.8164982323941701E-3</v>
+        <v>-0.0204071004166016</v>
       </c>
       <c r="G7">
-        <v>-3.7606897298278701E-2</v>
+        <v>-0.0527805941841995</v>
       </c>
       <c r="H7">
-        <v>6.9759690428826598E-2</v>
+        <v>-0.0531974996654856</v>
       </c>
       <c r="I7">
-        <v>3.6223049415991498E-2</v>
+        <v>0.0235929286527847</v>
       </c>
       <c r="J7">
-        <v>2.0449430814209898E-2</v>
+        <v>-0.0132007209590622</v>
       </c>
       <c r="K7">
-        <v>5.0583804615207999E-2</v>
+        <v>-0.0686592585673473</v>
       </c>
       <c r="L7">
-        <v>-2.6523950022356298E-2</v>
+        <v>0.0632520111589481</v>
       </c>
       <c r="M7">
-        <v>-5.1792887503286497E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+        <v>-0.0116961515888322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>-3.7631100757367301E-2</v>
-      </c>
       <c r="D8">
-        <v>1.5463917525773099E-2</v>
+        <v>0.00132669983416256</v>
       </c>
       <c r="E8">
-        <v>9.3485265126912499E-3</v>
+        <v>0.00101571257483548</v>
       </c>
       <c r="F8">
-        <v>5.0169807855222598E-2</v>
+        <v>-0.0198844002613886</v>
       </c>
       <c r="G8">
-        <v>-7.4937414106733104E-3</v>
+        <v>-0.0383073636656164</v>
       </c>
       <c r="H8">
-        <v>2.6484004823675199E-2</v>
+        <v>-0.00889268117644754</v>
       </c>
       <c r="I8">
-        <v>1.04287669356228E-2</v>
+        <v>0.0316800535770867</v>
       </c>
       <c r="J8">
-        <v>6.7999184636143101E-2</v>
+        <v>-0.00927768052636367</v>
       </c>
       <c r="K8">
-        <v>-3.4768238037983699E-2</v>
+        <v>0.00715125182292026</v>
       </c>
       <c r="L8">
-        <v>3.6581448825380398E-2</v>
+        <v>-0.0103372163863167</v>
       </c>
       <c r="M8">
-        <v>-4.6017420323638897E-2</v>
+        <v>-0.0471279841838325</v>
       </c>
       <c r="N8">
-        <v>1.1597616646738799E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+        <v>-0.0147560310326145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-4.7011730892782003E-2</v>
+        <v>-0.0528468953149518</v>
       </c>
       <c r="D9">
-        <v>-0.13953488372093001</v>
+        <v>-0.043030660046565</v>
       </c>
       <c r="E9">
-        <v>-4.56139249456297E-2</v>
+        <v>0.00124216044202718</v>
       </c>
       <c r="F9">
-        <v>-3.9720789618046898E-2</v>
+        <v>0.0100302334651591</v>
       </c>
       <c r="G9">
-        <v>1.04914566379494E-2</v>
+        <v>-0.0229901999017754</v>
       </c>
       <c r="H9">
-        <v>3.29288268100685E-2</v>
+        <v>0.0337875692850464</v>
       </c>
       <c r="I9">
-        <v>7.1947311884757406E-2</v>
+        <v>0.0122877998492285</v>
       </c>
       <c r="J9">
-        <v>3.2593408951875097E-2</v>
+        <v>0.00334320756712259</v>
       </c>
       <c r="K9">
-        <v>-6.4629223476147602E-3</v>
+        <v>-0.0128127947348647</v>
       </c>
       <c r="L9">
-        <v>1.0547525727704199E-2</v>
+        <v>-0.0386007043157061</v>
       </c>
       <c r="M9">
-        <v>-3.4200144120846601E-3</v>
-      </c>
-      <c r="N9">
-        <v>2.6509623284428602E-2</v>
+        <v>-0.018068875496248</v>
       </c>
       <c r="O9">
-        <v>8.6745689655172598E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+        <v>-0.0110087858579443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>-0.103427540589296</v>
-      </c>
       <c r="D10">
-        <v>7.7039848197343302E-2</v>
+        <v>-0.164034905464367</v>
       </c>
       <c r="E10">
-        <v>8.2795634974148102E-2</v>
+        <v>0.0143893980704803</v>
       </c>
       <c r="F10">
-        <v>-2.1724502900614302E-2</v>
+        <v>-0.06426015644897</v>
       </c>
       <c r="G10">
-        <v>-1.7193895089635199E-2</v>
+        <v>0.0022742498691233</v>
       </c>
       <c r="H10">
-        <v>1.1607479711638301E-2</v>
+        <v>0.0278274336377172</v>
       </c>
       <c r="I10">
-        <v>2.7398603616779E-4</v>
+        <v>-0.0125733706726232</v>
       </c>
       <c r="J10">
-        <v>6.0470012582139798E-2</v>
+        <v>-0.00790437650725954</v>
       </c>
       <c r="K10">
-        <v>1.62848619741859E-2</v>
+        <v>-0.000105329193902077</v>
       </c>
       <c r="L10">
-        <v>1.21327237658226E-2</v>
+        <v>0.0366652332168054</v>
       </c>
       <c r="M10">
-        <v>-3.5978354821363502E-2</v>
+        <v>0.00143089599539498</v>
       </c>
       <c r="N10">
-        <v>1.59329483847184E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.118986269519059</v>
+      </c>
+      <c r="O10">
+        <v>-0.029228738449934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>-0.0864046863558702</v>
+      </c>
+      <c r="D11">
+        <v>-0.00591245216845121</v>
+      </c>
+      <c r="E11">
+        <v>-0.0258113723107131</v>
+      </c>
       <c r="F11">
-        <v>-5.3300551119120597E-2</v>
+        <v>-0.0675115354182757</v>
       </c>
       <c r="G11">
-        <v>-1.49132942159563E-2</v>
+        <v>0.00916103535370954</v>
       </c>
       <c r="H11">
-        <v>7.2101240331281305E-2</v>
+        <v>-0.0193326883801974</v>
       </c>
       <c r="I11">
-        <v>0.107448942890809</v>
+        <v>-0.012535126309644</v>
       </c>
       <c r="J11">
-        <v>7.1074270762578398E-2</v>
+        <v>-0.0267835025581047</v>
       </c>
       <c r="K11">
-        <v>2.2375541531566599E-2</v>
+        <v>-0.0417281027509162</v>
       </c>
       <c r="L11">
-        <v>3.6715547753389997E-2</v>
+        <v>-0.0429585373665017</v>
       </c>
       <c r="M11">
-        <v>-3.9448799114577403E-2</v>
+        <v>-0.00752894237524982</v>
       </c>
       <c r="N11">
-        <v>-1.66505791505791E-2</v>
+        <v>0.0181094762954227</v>
       </c>
       <c r="O11">
-        <v>2.5757575757575601E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.0811690721973391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>-2.3310023310023201E-2</v>
-      </c>
       <c r="F12">
-        <v>6.9003926114573705E-2</v>
+        <v>0.0296059319101079</v>
       </c>
       <c r="G12">
-        <v>-5.2887425154667302E-2</v>
+        <v>-0.0700264571279801</v>
       </c>
       <c r="H12">
-        <v>-6.6946105222119898E-2</v>
+        <v>-0.0176849199869299</v>
       </c>
       <c r="I12">
-        <v>4.9235958926827798E-2</v>
+        <v>-0.0139001594299804</v>
       </c>
       <c r="J12">
-        <v>8.5600457646689401E-2</v>
+        <v>-0.0189198603363982</v>
       </c>
       <c r="K12">
-        <v>0.110450958084027</v>
+        <v>-0.0282954262742854</v>
       </c>
       <c r="L12">
-        <v>1.45384516361964E-2</v>
+        <v>-0.0136910061472578</v>
       </c>
       <c r="M12">
-        <v>1.3130975284865599E-2</v>
+        <v>0.0364289975027174</v>
       </c>
       <c r="N12">
-        <v>3.05683160697592E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.0563865274938125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E13">
+        <v>-0.0165283220953727</v>
+      </c>
       <c r="F13">
-        <v>0.12185693514399901</v>
+        <v>0.0434150141576423</v>
       </c>
       <c r="G13">
-        <v>-1.9097222222222199E-2</v>
+        <v>0.0954638939670933</v>
       </c>
       <c r="H13">
-        <v>-3.8786362214576098E-2</v>
+        <v>-0.133136779701743</v>
       </c>
       <c r="I13">
-        <v>-4.3378670894323297E-2</v>
+        <v>-0.016461099225782</v>
       </c>
       <c r="J13">
-        <v>0.23098772054035899</v>
+        <v>-0.0325132610072634</v>
       </c>
       <c r="K13">
-        <v>-5.6493935897588998E-2</v>
+        <v>-0.0102042111115097</v>
       </c>
       <c r="L13">
-        <v>0.11225855371820501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+        <v>-0.0335697719000394</v>
+      </c>
+      <c r="M13">
+        <v>0.0822938330646625</v>
+      </c>
+      <c r="N13">
+        <v>-0.0773694390715668</v>
+      </c>
+      <c r="O13">
+        <v>-0.0430910384732041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14">
-        <v>7.8263963002489501E-3</v>
+      <c r="G14">
+        <v>0.0153260948216016</v>
       </c>
       <c r="H14">
-        <v>4.0314136125654501E-2</v>
-      </c>
-      <c r="I14">
-        <v>0.171946887193524</v>
+        <v>0.148980441115273</v>
+      </c>
+      <c r="J14">
+        <v>0.0195584709117071</v>
       </c>
       <c r="K14">
-        <v>-0.116460339293902</v>
+        <v>0.130992790069622</v>
       </c>
       <c r="L14">
-        <v>-5.1795295088732901E-2</v>
-      </c>
-      <c r="M14">
-        <v>0.12719733079123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+        <v>-0.0207333015053002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H15">
+        <v>0.0527474571785834</v>
+      </c>
       <c r="I15">
-        <v>-0.30386100386100401</v>
-      </c>
-      <c r="J15">
-        <v>7.7274209325073298E-2</v>
-      </c>
-      <c r="K15">
-        <v>9.6685714285714305E-2</v>
+        <v>-0.0970631344660984</v>
+      </c>
+      <c r="L15">
+        <v>0.0419144921605462</v>
       </c>
       <c r="M15">
-        <v>-5.5925175971458501E-3</v>
+        <v>-0.0308548530721283</v>
       </c>
       <c r="N15">
-        <v>2.3366967604885299E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.0980603823519168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K16">
+        <v>0.0114552690776952</v>
+      </c>
       <c r="L16">
-        <v>-0.16229221347331599</v>
+        <v>-0.088644546073757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>-0.0159699799284405</v>
+      </c>
+      <c r="M17">
+        <v>0.0917518421678154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18">
+        <v>-0.0412827781715097</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1866,428 +1849,404 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="F4">
         <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="J4">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.66666666666666696</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.66666666666666696</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.66666666666666696</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0.5</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0.5</v>
-      </c>
-      <c r="L5">
-        <v>0.5</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0.25</v>
+      </c>
+      <c r="F6">
         <v>0.5</v>
       </c>
-      <c r="F6">
-        <v>0.57142857142857095</v>
-      </c>
       <c r="G6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.4</v>
+      </c>
+      <c r="I6">
+        <v>0.25</v>
+      </c>
+      <c r="J6">
+        <v>0.625</v>
+      </c>
+      <c r="K6">
         <v>0.5</v>
       </c>
-      <c r="H6">
-        <v>0.71428571428571397</v>
-      </c>
-      <c r="I6">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="J6">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="K6">
-        <v>0.375</v>
-      </c>
       <c r="L6">
-        <v>0.2</v>
-      </c>
-      <c r="M6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="F7">
+        <v>0.25</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>0.1875</v>
+      </c>
+      <c r="I7">
+        <v>0.538461538461538</v>
+      </c>
+      <c r="J7">
         <v>0.5</v>
       </c>
-      <c r="F7">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="G7">
-        <v>0.44</v>
-      </c>
-      <c r="H7">
-        <v>0.68181818181818199</v>
-      </c>
-      <c r="I7">
-        <v>0.6</v>
-      </c>
-      <c r="J7">
-        <v>0.55555555555555602</v>
-      </c>
       <c r="K7">
-        <v>0.68181818181818199</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.35714285714285698</v>
+        <v>0.625</v>
       </c>
       <c r="M7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.4</v>
+      </c>
+      <c r="F8">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="G8">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="H8">
+        <v>0.4</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>0.37037037037037</v>
+      </c>
+      <c r="K8">
+        <v>0.592592592592593</v>
+      </c>
+      <c r="L8">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="M8">
         <v>0.2</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0.55555555555555602</v>
-      </c>
-      <c r="F8">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="G8">
-        <v>0.56097560975609795</v>
-      </c>
-      <c r="H8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="I8">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="J8">
-        <v>0.76</v>
-      </c>
-      <c r="K8">
-        <v>0.34615384615384598</v>
-      </c>
-      <c r="L8">
-        <v>0.68421052631578905</v>
-      </c>
-      <c r="M8">
-        <v>0.28571428571428598</v>
-      </c>
       <c r="N8">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.33333333333333298</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="F9">
-        <v>0.434782608695652</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G9">
-        <v>0.54716981132075504</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="H9">
-        <v>0.63333333333333297</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I9">
-        <v>0.69696969696969702</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="J9">
-        <v>0.71428571428571397</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="K9">
-        <v>0.44827586206896602</v>
+        <v>0.424242424242424</v>
       </c>
       <c r="L9">
-        <v>0.52173913043478304</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="M9">
-        <v>0.7</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
+        <v>0.352941176470588</v>
       </c>
       <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.66666666666666696</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G10">
-        <v>0.42857142857142899</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H10">
-        <v>0.55555555555555602</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="I10">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="J10">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="K10">
+        <v>0.461538461538462</v>
+      </c>
+      <c r="L10">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="M10">
+        <v>0.5625</v>
+      </c>
+      <c r="N10">
         <v>0.5</v>
       </c>
-      <c r="J10">
-        <v>0.85</v>
-      </c>
-      <c r="K10">
-        <v>0.61538461538461497</v>
-      </c>
-      <c r="L10">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="M10">
-        <v>0.375</v>
-      </c>
-      <c r="N10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>0.6</v>
       </c>
-      <c r="G11">
-        <v>0.66666666666666696</v>
-      </c>
       <c r="H11">
-        <v>0.85714285714285698</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="I11">
-        <v>0.88888888888888895</v>
+        <v>0.5</v>
       </c>
       <c r="J11">
-        <v>0.8</v>
+        <v>0.3125</v>
       </c>
       <c r="K11">
-        <v>0.72727272727272696</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="L11">
-        <v>0.64285714285714302</v>
+        <v>0.269230769230769</v>
       </c>
       <c r="M11">
-        <v>0.33333333333333298</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.57142857142857095</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.28571428571428598</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="I12">
-        <v>0.8</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="J12">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.6</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="F13">
-        <v>0.66666666666666696</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.33333333333333298</v>
+        <v>0.375</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.33333333333333298</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.25</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="G14">
+        <v>0.666666666666667</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1</v>
+      <c r="J14">
+        <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
+      <c r="L15">
+        <v>0.666666666666667</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2296,31 +2255,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2367,163 +2345,130 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
+      <c r="F4" t="s">
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
         <v>102</v>
       </c>
-      <c r="M6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
+      <c r="D7" t="s">
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
         <v>103</v>
@@ -2532,36 +2477,33 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
         <v>104</v>
@@ -2570,10 +2512,10 @@
         <v>115</v>
       </c>
       <c r="N8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2581,28 +2523,28 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
         <v>105</v>
@@ -2610,43 +2552,37 @@
       <c r="M9" t="s">
         <v>116</v>
       </c>
-      <c r="N9" t="s">
-        <v>123</v>
-      </c>
       <c r="O9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s">
         <v>106</v>
@@ -2657,28 +2593,40 @@
       <c r="N10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
         <v>107</v>
@@ -2690,33 +2638,30 @@
         <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s">
         <v>108</v>
@@ -2725,70 +2670,79 @@
         <v>119</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="M13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
-        <v>37</v>
+      <c r="G14" t="s">
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s">
         <v>110</v>
       </c>
-      <c r="M14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" t="s">
-        <v>99</v>
+        <v>80</v>
+      </c>
+      <c r="L15" t="s">
+        <v>111</v>
       </c>
       <c r="M15" t="s">
         <v>121</v>
@@ -2797,309 +2751,326 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K16" t="s">
+        <v>101</v>
+      </c>
       <c r="L16" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
-        <v>35881</v>
+        <v>35986</v>
       </c>
       <c r="B2">
-        <v>-4762</v>
+        <v>4021</v>
       </c>
       <c r="C2">
-        <v>654772</v>
+        <v>653742</v>
       </c>
       <c r="D2">
-        <v>-0.37769144162387303</v>
+        <v>0.940223988530553</v>
       </c>
       <c r="E2">
-        <v>1.6159238202843</v>
+        <v>-1.06473263596281</v>
       </c>
       <c r="F2">
-        <v>-0.22626865671641799</v>
+        <v>-0.0835466179159049</v>
       </c>
       <c r="G2">
-        <v>-0.25373134328358199</v>
+        <v>-0.0903107861060328</v>
       </c>
       <c r="H2">
-        <v>8.9552238805969998E-3</v>
+        <v>0.00950639853747726</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
-        <v>36049</v>
+        <v>37841</v>
       </c>
       <c r="B3">
-        <v>-4995</v>
+        <v>-45527</v>
       </c>
       <c r="C3">
-        <v>649385</v>
+        <v>1794702</v>
       </c>
       <c r="D3">
-        <v>-2.93960752146631E-2</v>
+        <v>0.637846482824392</v>
       </c>
       <c r="E3">
-        <v>1.56049023566095</v>
+        <v>-1.29162442301303</v>
       </c>
       <c r="F3">
-        <v>-3.4794711203897002E-2</v>
+        <v>-0.0187889976864294</v>
       </c>
       <c r="G3">
-        <v>-9.0466249130132098E-2</v>
+        <v>-0.0860227617957047</v>
       </c>
       <c r="H3">
-        <v>0.13848295059151</v>
+        <v>0.0895515412119372</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
-        <v>38898</v>
+        <v>39339</v>
       </c>
       <c r="B4">
-        <v>66549</v>
+        <v>-95295</v>
       </c>
       <c r="C4">
-        <v>1591677</v>
+        <v>3082195</v>
       </c>
       <c r="D4">
-        <v>-0.124470683218217</v>
+        <v>0.743831039680667</v>
       </c>
       <c r="E4">
-        <v>1.64080261153839</v>
+        <v>-1.02023183539916</v>
       </c>
       <c r="F4">
-        <v>-1.90746753246753E-2</v>
+        <v>-0.0541050221134634</v>
       </c>
       <c r="G4">
-        <v>-5.8441558441558503E-2</v>
+        <v>-0.0541050221134634</v>
       </c>
       <c r="H4">
-        <v>6.0606060606060601E-2</v>
+        <v>0.0585501650090923</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
-        <v>39773</v>
+        <v>40270</v>
       </c>
       <c r="B5">
-        <v>94908</v>
+        <v>-39405</v>
       </c>
       <c r="C5">
-        <v>2810519</v>
+        <v>1871528</v>
       </c>
       <c r="D5">
-        <v>-0.26168513344491601</v>
+        <v>0.521886021411331</v>
       </c>
       <c r="E5">
-        <v>1.6482179263563299</v>
+        <v>-1.37208528219484</v>
       </c>
       <c r="F5">
-        <v>-0.28369629193643298</v>
+        <v>-0.165411818389231</v>
       </c>
       <c r="G5">
-        <v>-0.36433195997645701</v>
+        <v>-0.224123507491064</v>
       </c>
       <c r="H5">
-        <v>9.8293113596233106E-2</v>
+        <v>0.0164271047227926</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
-        <v>40375</v>
+        <v>40326</v>
       </c>
       <c r="B6">
-        <v>112398</v>
+        <v>-32734</v>
       </c>
       <c r="C6">
-        <v>2624123</v>
+        <v>2178068</v>
       </c>
       <c r="D6">
-        <v>-0.12534396857067201</v>
+        <v>0.711594496285516</v>
       </c>
       <c r="E6">
-        <v>1.52737320877031</v>
+        <v>-1.19995975130873</v>
       </c>
       <c r="F6">
-        <v>1.12433862433863E-2</v>
+        <v>-0.0904866047020231</v>
       </c>
       <c r="G6">
-        <v>-6.4021164021163895E-2</v>
+        <v>-0.133892230119677</v>
       </c>
       <c r="H6">
-        <v>9.7486772486772497E-2</v>
+        <v>0.038697527489217</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
-        <v>41992</v>
+        <v>40900</v>
       </c>
       <c r="B7">
-        <v>319593</v>
+        <v>-10954</v>
       </c>
       <c r="C7">
-        <v>2267373</v>
+        <v>1734484</v>
       </c>
       <c r="D7">
-        <v>-0.345482641819433</v>
+        <v>0.737144239108529</v>
       </c>
       <c r="E7">
-        <v>1.51083051737681</v>
+        <v>-1.14578932408023</v>
       </c>
       <c r="F7">
-        <v>-8.6060606060606101E-2</v>
+        <v>-0.011213198972535</v>
       </c>
       <c r="G7">
-        <v>-0.24536796536796501</v>
+        <v>-0.115737996443391</v>
       </c>
       <c r="H7">
-        <v>1.35064935064935E-2</v>
+        <v>0.0333432128037936</v>
       </c>
       <c r="I7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
-        <v>42440</v>
+        <v>42069</v>
       </c>
       <c r="B8">
-        <v>303758</v>
+        <v>-118626</v>
       </c>
       <c r="C8">
-        <v>2547472</v>
+        <v>3138767</v>
       </c>
       <c r="D8">
-        <v>-0.471762328987475</v>
+        <v>0.946312664761166</v>
       </c>
       <c r="E8">
-        <v>1.6278092742400201</v>
+        <v>-1.48477720570486</v>
       </c>
       <c r="F8">
-        <v>0.17002881844380399</v>
+        <v>-0.0570625501918444</v>
       </c>
       <c r="G8">
-        <v>-7.6761854859837594E-2</v>
+        <v>-0.196841259926831</v>
       </c>
       <c r="H8">
-        <v>0.22556981922976099</v>
+        <v>0.00236459355759799</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
-        <v>42601</v>
+        <v>42608</v>
       </c>
       <c r="B9">
-        <v>327808</v>
+        <v>-78727</v>
       </c>
       <c r="C9">
-        <v>2683185</v>
+        <v>3306904</v>
       </c>
       <c r="D9">
-        <v>-0.18136299591830299</v>
+        <v>0.625253900802967</v>
       </c>
       <c r="E9">
-        <v>1.6538531225050701</v>
+        <v>-1.00448396551018</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>